--- a/data/rein.xlsx
+++ b/data/rein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A89D75-4AAF-4BE4-BF56-8EF000788CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43F370-6F3A-44DE-A104-CCE2ACBBDA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE1797A3-D26A-401F-8E9F-5AEBEDACC10A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CE1797A3-D26A-401F-8E9F-5AEBEDACC10A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>Totalreal</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Raudafjell</t>
   </si>
   <si>
-    <t>reg</t>
-  </si>
-  <si>
     <t>Rendal Renselskap</t>
   </si>
   <si>
@@ -193,6 +190,111 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Setesdal-Ryfylke</t>
+  </si>
+  <si>
+    <t>Setesdal-Austhei</t>
+  </si>
+  <si>
+    <t>Skaulen-Etnefjell</t>
+  </si>
+  <si>
+    <t>Våmur-Roan</t>
+  </si>
+  <si>
+    <t>Brattefjell-Vindeggen</t>
+  </si>
+  <si>
+    <t>Blefjell</t>
+  </si>
+  <si>
+    <t>Hardangervidda</t>
+  </si>
+  <si>
+    <t>Norefjell-Reinsjøfjell</t>
+  </si>
+  <si>
+    <t>Oksenhalvøya</t>
+  </si>
+  <si>
+    <t>Fjellheimen</t>
+  </si>
+  <si>
+    <t>Nordfjella</t>
+  </si>
+  <si>
+    <t>Lærdal-Årdal</t>
+  </si>
+  <si>
+    <t>Vest-Jotunheimen</t>
+  </si>
+  <si>
+    <t>Sunnfjord</t>
+  </si>
+  <si>
+    <t>Førdefjella</t>
+  </si>
+  <si>
+    <t>Svartebotnen</t>
+  </si>
+  <si>
+    <t>Reinheimen-Breheimen</t>
+  </si>
+  <si>
+    <t>Snøhetta</t>
+  </si>
+  <si>
+    <t>Rondane</t>
+  </si>
+  <si>
+    <t>Sølnkletten</t>
+  </si>
+  <si>
+    <t>Tolga-Østfjell</t>
+  </si>
+  <si>
+    <t>Forollhogna</t>
+  </si>
+  <si>
+    <t>Knutshø</t>
+  </si>
+  <si>
+    <t>Rendalen</t>
+  </si>
+  <si>
+    <t>Lom</t>
+  </si>
+  <si>
+    <t>Vågå</t>
+  </si>
+  <si>
+    <t>Fram</t>
+  </si>
+  <si>
+    <t>Filefjell</t>
+  </si>
+  <si>
+    <t>HedmSTrondelag</t>
+  </si>
+  <si>
+    <t>NordTrondelag</t>
+  </si>
+  <si>
+    <t>VestFinnmark</t>
+  </si>
+  <si>
+    <t>OstFinnmark</t>
+  </si>
+  <si>
+    <t>Fjellområder uten rein</t>
+  </si>
+  <si>
+    <t>totalt</t>
+  </si>
+  <si>
+    <t>navn2</t>
   </si>
 </sst>
 </file>
@@ -544,27 +646,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA15CD-286A-45A5-9A23-5F3B5BF1F6EF}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -578,16 +683,34 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>7067.1820826206595</v>
@@ -601,16 +724,25 @@
       <c r="G2">
         <v>363.54312199999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>3211.7775000000001</v>
+      </c>
+      <c r="J2">
+        <v>1907.31</v>
+      </c>
+      <c r="M2">
+        <v>5119.0874999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>2432.5250894385499</v>
@@ -624,16 +756,22 @@
       <c r="G3">
         <v>437.05674599999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>659.69</v>
+      </c>
+      <c r="M3">
+        <v>659.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>654.32788413061598</v>
@@ -647,16 +785,22 @@
       <c r="G4">
         <v>573.36805600000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>603.52499999999998</v>
+      </c>
+      <c r="M4">
+        <v>603.52499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>449.12977029048403</v>
@@ -670,16 +814,22 @@
       <c r="G5">
         <v>381.67135500000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>51.237499999999997</v>
+      </c>
+      <c r="M5">
+        <v>51.237499999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>417.40392587815603</v>
@@ -693,16 +843,22 @@
       <c r="G6">
         <v>325.63697500000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>213.095</v>
+      </c>
+      <c r="M6">
+        <v>213.095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>264.45680781675901</v>
@@ -716,16 +872,25 @@
       <c r="G7">
         <v>324.18023699999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>29.182500000000001</v>
+      </c>
+      <c r="I7">
+        <v>35.197499999999998</v>
+      </c>
+      <c r="M7">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>8727.3618738255009</v>
@@ -739,16 +904,28 @@
       <c r="G8">
         <v>232.00149300000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1668.19</v>
+      </c>
+      <c r="I8">
+        <v>2331.665</v>
+      </c>
+      <c r="J8">
+        <v>3370.78</v>
+      </c>
+      <c r="M8">
+        <v>7370.6350000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>582.28726743613095</v>
@@ -762,16 +939,22 @@
       <c r="G9">
         <v>221.16261600000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>292.45</v>
+      </c>
+      <c r="M9">
+        <v>292.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>89.818684464637997</v>
@@ -785,16 +968,22 @@
       <c r="G10">
         <v>859.62930500000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>39.094999999999999</v>
+      </c>
+      <c r="M10">
+        <v>39.094999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>1778.1922654145201</v>
@@ -808,16 +997,22 @@
       <c r="G11">
         <v>769.22404200000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1532.7225000000001</v>
+      </c>
+      <c r="M11">
+        <v>1532.7225000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>3256.20615740112</v>
@@ -831,16 +1026,25 @@
       <c r="G12">
         <v>364.60710899999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1354.23</v>
+      </c>
+      <c r="J12">
+        <v>1533.14</v>
+      </c>
+      <c r="M12">
+        <v>2887.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>559.07989313923497</v>
@@ -854,16 +1058,25 @@
       <c r="G13">
         <v>534.38448400000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>15.202500000000001</v>
+      </c>
+      <c r="J13">
+        <v>450.30250000000001</v>
+      </c>
+      <c r="M13">
+        <v>465.505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>1105.1964031561502</v>
@@ -877,16 +1090,25 @@
       <c r="G14">
         <v>817.85456699999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>12.85</v>
+      </c>
+      <c r="J14">
+        <v>933.54499999999996</v>
+      </c>
+      <c r="M14">
+        <v>946.39499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>900.09460253946395</v>
@@ -900,16 +1122,22 @@
       <c r="G15">
         <v>1064.0448160000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>360.53</v>
+      </c>
+      <c r="M15">
+        <v>360.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>628.83988700155396</v>
@@ -923,16 +1151,22 @@
       <c r="G16">
         <v>1071.4572209999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>452.25749999999999</v>
+      </c>
+      <c r="M16">
+        <v>452.25749999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>330.08496131464398</v>
@@ -946,16 +1180,22 @@
       <c r="G17">
         <v>1733.076114</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>155.405</v>
+      </c>
+      <c r="M17">
+        <v>155.405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>5787.9892024876499</v>
@@ -969,16 +1209,28 @@
       <c r="G18">
         <v>682.63787200000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3101.415</v>
+      </c>
+      <c r="J18">
+        <v>758.92499999999995</v>
+      </c>
+      <c r="K18">
+        <v>1180.8599999999999</v>
+      </c>
+      <c r="M18">
+        <v>5041.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>3730.8214714364999</v>
@@ -992,16 +1244,25 @@
       <c r="G19">
         <v>595.942722</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1199.7</v>
+      </c>
+      <c r="K19">
+        <v>2075.9</v>
+      </c>
+      <c r="M19">
+        <v>3275.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>4845.6710560063693</v>
@@ -1015,16 +1276,22 @@
       <c r="G20">
         <v>248.22278600000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2144.7325000000001</v>
+      </c>
+      <c r="M20">
+        <v>2144.7325000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D21">
         <v>1514.81095111279</v>
@@ -1038,16 +1305,22 @@
       <c r="G21">
         <v>178.404864</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>641.92750000000001</v>
+      </c>
+      <c r="M21">
+        <v>641.92750000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D22">
         <v>346.13618894226096</v>
@@ -1061,16 +1334,22 @@
       <c r="G22">
         <v>130.20733100000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>236.64500000000001</v>
+      </c>
+      <c r="M22">
+        <v>236.64500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>2340.2843160340999</v>
@@ -1084,16 +1363,25 @@
       <c r="G23">
         <v>93.15558</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>634.94000000000005</v>
+      </c>
+      <c r="K23">
+        <v>838.63499999999999</v>
+      </c>
+      <c r="M23">
+        <v>1473.575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>2074.4502870841302</v>
@@ -1107,13 +1395,22 @@
       <c r="G24">
         <v>168.539669</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>831.3125</v>
+      </c>
+      <c r="K24">
+        <v>579.48500000000001</v>
+      </c>
+      <c r="M24">
+        <v>1410.7974999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -1130,13 +1427,22 @@
       <c r="G25">
         <v>772.27919099999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>422.96499999999997</v>
+      </c>
+      <c r="M25">
+        <v>422.96499999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>2131.95712483024</v>
@@ -1150,13 +1456,22 @@
       <c r="G26">
         <v>150.14314899999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>748.65250000000003</v>
+      </c>
+      <c r="M26">
+        <v>748.65250000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>1142.9793070016699</v>
@@ -1170,13 +1485,25 @@
       <c r="G27">
         <v>591.047597</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1033.4175</v>
+      </c>
+      <c r="J27">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="M27">
+        <v>1040.9725000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>1192.42865785611</v>
@@ -1190,13 +1517,25 @@
       <c r="G28">
         <v>561.88926200000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>917.12750000000005</v>
+      </c>
+      <c r="J28">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="M28">
+        <v>917.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>1735.88034905686</v>
@@ -1210,13 +1549,25 @@
       <c r="G29">
         <v>287.38127100000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1010.2424999999999</v>
+      </c>
+      <c r="J29">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="M29">
+        <v>1010.3150000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>1587.3534554772798</v>
@@ -1230,13 +1581,25 @@
       <c r="G30">
         <v>448.590891</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>915.23749999999995</v>
+      </c>
+      <c r="J30">
+        <v>248.75</v>
+      </c>
+      <c r="M30">
+        <v>1163.9875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>2288.73497670191</v>
@@ -1247,16 +1610,22 @@
       <c r="G31">
         <v>508.62377400000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1129.06</v>
+      </c>
+      <c r="M31">
+        <v>1129.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>6197.0591379095895</v>
@@ -1270,16 +1639,25 @@
       <c r="G32">
         <v>146.52738299999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>428.685</v>
+      </c>
+      <c r="K32">
+        <v>1975.35</v>
+      </c>
+      <c r="M32">
+        <v>2404.0349999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>22319.110906830199</v>
@@ -1293,16 +1671,25 @@
       <c r="G33">
         <v>227.41330099999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>6431.6049999999996</v>
+      </c>
+      <c r="L33">
+        <v>342.99250000000001</v>
+      </c>
+      <c r="M33">
+        <v>6774.5974999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>33026.218422764403</v>
@@ -1316,16 +1703,25 @@
       <c r="G34">
         <v>681.44013099999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>166.52250000000001</v>
+      </c>
+      <c r="L34">
+        <v>15640.9175</v>
+      </c>
+      <c r="M34">
+        <v>15807.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>20650.0479794151</v>
@@ -1339,16 +1735,22 @@
       <c r="G35">
         <v>1038.107753</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>10368.202499999999</v>
+      </c>
+      <c r="M35">
+        <v>10368.202499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>24363.3225171302</v>
@@ -1362,16 +1764,22 @@
       <c r="G36">
         <v>421.68258300000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>14136.4375</v>
+      </c>
+      <c r="M36">
+        <v>14136.4375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <v>30959.4025424748</v>
@@ -1385,13 +1793,22 @@
       <c r="G37">
         <v>140.20102199999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>17906.080000000002</v>
+      </c>
+      <c r="M37">
+        <v>17906.080000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>14349.51</v>
@@ -1400,18 +1817,47 @@
         <v>964.12917900000002</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
       <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>1540.7175</v>
       </c>
       <c r="G39">
         <v>1923.412243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40">
+        <v>2066.5700000000002</v>
+      </c>
+      <c r="I40">
+        <v>608.005</v>
+      </c>
+      <c r="J40">
+        <v>7674.7025000000003</v>
+      </c>
+      <c r="K40">
+        <v>3957.0475000000001</v>
+      </c>
+      <c r="L40">
+        <v>1482.2149999999999</v>
+      </c>
+      <c r="M40">
+        <v>15788.54</v>
       </c>
     </row>
   </sheetData>

--- a/data/rein.xlsx
+++ b/data/rein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43F370-6F3A-44DE-A104-CCE2ACBBDA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC762D8-5107-4392-AAD0-48B2C104E37A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CE1797A3-D26A-401F-8E9F-5AEBEDACC10A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CE1797A3-D26A-401F-8E9F-5AEBEDACC10A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
